--- a/stock_predictor_ai/data/cleaned/CFG.xlsx
+++ b/stock_predictor_ai/data/cleaned/CFG.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2701"/>
+  <dimension ref="A1:F2702"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54469,6 +54469,26 @@
         <v>375741</v>
       </c>
     </row>
+    <row r="2702">
+      <c r="A2702" s="2" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B2702" t="n">
+        <v>47.86999893188477</v>
+      </c>
+      <c r="C2702" t="n">
+        <v>48.15999984741211</v>
+      </c>
+      <c r="D2702" t="n">
+        <v>47.72999954223633</v>
+      </c>
+      <c r="E2702" t="n">
+        <v>48.11999893188477</v>
+      </c>
+      <c r="F2702" t="n">
+        <v>797643</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/CFG.xlsx
+++ b/stock_predictor_ai/data/cleaned/CFG.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2702"/>
+  <dimension ref="A1:F2703"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54489,6 +54489,26 @@
         <v>797643</v>
       </c>
     </row>
+    <row r="2703">
+      <c r="A2703" s="2" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B2703" t="n">
+        <v>46.68999862670898</v>
+      </c>
+      <c r="C2703" t="n">
+        <v>47.90999984741211</v>
+      </c>
+      <c r="D2703" t="n">
+        <v>46.63999938964844</v>
+      </c>
+      <c r="E2703" t="n">
+        <v>47.72000122070312</v>
+      </c>
+      <c r="F2703" t="n">
+        <v>5823700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/CFG.xlsx
+++ b/stock_predictor_ai/data/cleaned/CFG.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2703"/>
+  <dimension ref="A1:F2704"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54509,6 +54509,26 @@
         <v>5823700</v>
       </c>
     </row>
+    <row r="2704">
+      <c r="A2704" s="2" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B2704" t="n">
+        <v>48.78499984741211</v>
+      </c>
+      <c r="C2704" t="n">
+        <v>48.90999984741211</v>
+      </c>
+      <c r="D2704" t="n">
+        <v>48.52000045776367</v>
+      </c>
+      <c r="E2704" t="n">
+        <v>48.65000152587891</v>
+      </c>
+      <c r="F2704" t="n">
+        <v>516304</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/CFG.xlsx
+++ b/stock_predictor_ai/data/cleaned/CFG.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2704"/>
+  <dimension ref="A1:F2705"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54529,6 +54529,26 @@
         <v>516304</v>
       </c>
     </row>
+    <row r="2705">
+      <c r="A2705" s="2" t="n">
+        <v>45902</v>
+      </c>
+      <c r="B2705" t="n">
+        <v>51.34500122070312</v>
+      </c>
+      <c r="C2705" t="n">
+        <v>51.8650016784668</v>
+      </c>
+      <c r="D2705" t="n">
+        <v>50.99750137329102</v>
+      </c>
+      <c r="E2705" t="n">
+        <v>51.40000152587891</v>
+      </c>
+      <c r="F2705" t="n">
+        <v>1960474</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/CFG.xlsx
+++ b/stock_predictor_ai/data/cleaned/CFG.xlsx
@@ -63,7 +63,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2705"/>
+  <dimension ref="A1:F2700"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54449,106 +54451,6 @@
         <v>4319800</v>
       </c>
     </row>
-    <row r="2701">
-      <c r="A2701" s="2" t="n">
-        <v>45841</v>
-      </c>
-      <c r="B2701" t="n">
-        <v>47.7599983215332</v>
-      </c>
-      <c r="C2701" t="n">
-        <v>47.92499923706055</v>
-      </c>
-      <c r="D2701" t="n">
-        <v>47.26350021362305</v>
-      </c>
-      <c r="E2701" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="F2701" t="n">
-        <v>375741</v>
-      </c>
-    </row>
-    <row r="2702">
-      <c r="A2702" s="2" t="n">
-        <v>45847</v>
-      </c>
-      <c r="B2702" t="n">
-        <v>47.86999893188477</v>
-      </c>
-      <c r="C2702" t="n">
-        <v>48.15999984741211</v>
-      </c>
-      <c r="D2702" t="n">
-        <v>47.72999954223633</v>
-      </c>
-      <c r="E2702" t="n">
-        <v>48.11999893188477</v>
-      </c>
-      <c r="F2702" t="n">
-        <v>797643</v>
-      </c>
-    </row>
-    <row r="2703">
-      <c r="A2703" s="2" t="n">
-        <v>45853</v>
-      </c>
-      <c r="B2703" t="n">
-        <v>46.68999862670898</v>
-      </c>
-      <c r="C2703" t="n">
-        <v>47.90999984741211</v>
-      </c>
-      <c r="D2703" t="n">
-        <v>46.63999938964844</v>
-      </c>
-      <c r="E2703" t="n">
-        <v>47.72000122070312</v>
-      </c>
-      <c r="F2703" t="n">
-        <v>5823700</v>
-      </c>
-    </row>
-    <row r="2704">
-      <c r="A2704" s="2" t="n">
-        <v>45859</v>
-      </c>
-      <c r="B2704" t="n">
-        <v>48.78499984741211</v>
-      </c>
-      <c r="C2704" t="n">
-        <v>48.90999984741211</v>
-      </c>
-      <c r="D2704" t="n">
-        <v>48.52000045776367</v>
-      </c>
-      <c r="E2704" t="n">
-        <v>48.65000152587891</v>
-      </c>
-      <c r="F2704" t="n">
-        <v>516304</v>
-      </c>
-    </row>
-    <row r="2705">
-      <c r="A2705" s="2" t="n">
-        <v>45902</v>
-      </c>
-      <c r="B2705" t="n">
-        <v>51.34500122070312</v>
-      </c>
-      <c r="C2705" t="n">
-        <v>51.8650016784668</v>
-      </c>
-      <c r="D2705" t="n">
-        <v>50.99750137329102</v>
-      </c>
-      <c r="E2705" t="n">
-        <v>51.40000152587891</v>
-      </c>
-      <c r="F2705" t="n">
-        <v>1960474</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
